--- a/java/T_L.xlsx
+++ b/java/T_L.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Java\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Java\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88017025-7C2A-491C-B6BF-E0196AE3E5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45DBD6-7A5F-4B07-A5EA-5D83451C47DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Đối tượng tổng quát (Class)</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Đóng gói</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Note</t>
   </si>
 </sst>
 </file>
@@ -2252,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:R114"/>
+  <dimension ref="B8:R190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,6 +2347,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
